--- a/Statistics/S11_L58/4.4.Test-for-the-mean.Population-variance-known-exercise.xlsx
+++ b/Statistics/S11_L58/4.4.Test-for-the-mean.Population-variance-known-exercise.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iliya\Desktop\Statistics Course\Filming\Final excel\Section 4 - Hypothesis testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data_Analyst_Learning\Data-Analyst-Course\Statistics\S11_L58\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5CE9BB-3BC9-49F1-BDE9-D33BAB31C57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Population std</t>
   </si>
@@ -90,14 +91,20 @@
   <si>
     <t>You are given the data from the lesson</t>
   </si>
+  <si>
+    <t>4.674&lt;1.65</t>
+  </si>
+  <si>
+    <t>Reject</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -199,9 +206,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -209,10 +216,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -221,6 +228,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -528,47 +536,49 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="4.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="52.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="4.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="7"/>
     </row>
-    <row r="4" spans="2:10" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
@@ -576,7 +586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
@@ -584,12 +594,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
         <v>117313</v>
       </c>
@@ -607,7 +617,7 @@
         <v>113000</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="5">
         <v>104002</v>
       </c>
@@ -621,7 +631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="5">
         <v>113038</v>
       </c>
@@ -638,7 +648,7 @@
         <v>101936</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
         <v>84560</v>
       </c>
@@ -655,7 +665,7 @@
         <v>113136</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="5">
         <v>80740</v>
       </c>
@@ -677,85 +687,95 @@
         <v>105052</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="5">
         <v>87201</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="5">
         <v>91986</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="2:5" ht="12" x14ac:dyDescent="0.25">
+      <c r="H18" s="11">
+        <f>(E8-J8)/E10</f>
+        <v>-4.6737652696411374</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="5">
         <v>94868</v>
       </c>
       <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="5">
         <v>90745</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="H20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="5">
         <v>102848</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="5">
         <v>85927</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="5">
         <v>112276</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="5">
         <v>108637</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="5">
         <v>96818</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="5">
         <v>92307</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="5">
         <v>114564</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="5">
         <v>109714</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="5">
         <v>108833</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="5">
         <v>115295</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="5">
         <v>89279</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="5">
         <v>81720</v>
       </c>
